--- a/medicine/Enfance/La_Famille_Cochon/La_Famille_Cochon.xlsx
+++ b/medicine/Enfance/La_Famille_Cochon/La_Famille_Cochon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Famille Cochon est un ensemble de personnages récurrents dans le magazine français Les Belles Histoires.
-Les histoires de la Famille Cochon sont écrites par Marie-Agnès Gaudrat et illustrées par Colette Camil. La série a été rééditée en livres de poche et s'est vendue à plus de 200 000 exemplaires[1].
+Les histoires de la Famille Cochon sont écrites par Marie-Agnès Gaudrat et illustrées par Colette Camil. La série a été rééditée en livres de poche et s'est vendue à plus de 200 000 exemplaires.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les enfants : Marie, Charles et Bébé Cochon[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les enfants : Marie, Charles et Bébé Cochon
 Les parents : Papa et Maman Cochon
 Les grands-parents : Papi et Mamie Cochon</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Liste des histoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Famille Cochon déménage, Les Belles Histoires n° 216, septembre 1990.
 La rentrée de la Famille Cochon, Les Belles Histoires n° 252
@@ -582,9 +598,11 @@
           <t>Intégrale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La famille cochon, l'intégrale, Les Arènes Éditions, octobre 2017  (ISBN 978-2352046707)[2],[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La famille cochon, l'intégrale, Les Arènes Éditions, octobre 2017  (ISBN 978-2352046707),</t>
         </is>
       </c>
     </row>
@@ -612,9 +630,11 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quatre histoires ont été adaptées en dessin animé par France 3 dans la série Les Belles Histoires, avec la voix d'Henri Dès[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre histoires ont été adaptées en dessin animé par France 3 dans la série Les Belles Histoires, avec la voix d'Henri Dès.
 </t>
         </is>
       </c>
